--- a/График.xlsx
+++ b/График.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vogade\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vogade\Desktop\GitHub\salvation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BE56FA-4D0E-4820-A3AC-F38B8E06E945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF733FFC-D98C-4731-95CF-835A175023A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DB93457-207B-44F0-87AB-D713BC72F2C4}"/>
   </bookViews>
@@ -154,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +164,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,14 +192,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -502,20 +516,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DF54F0-2DBE-4309-9DCB-2D5D61B63011}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.140625" customWidth="1"/>
-    <col min="2" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>45034</v>
       </c>
@@ -534,241 +548,244 @@
       <c r="G1" s="1">
         <v>45069</v>
       </c>
-      <c r="H1" s="1">
-        <v>45076</v>
-      </c>
+      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
+      <c r="D19" s="4"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
+      <c r="D22" s="4"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G38" s="4"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/График.xlsx
+++ b/График.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vogade\Desktop\GitHub\salvation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF733FFC-D98C-4731-95CF-835A175023A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E1E98A-6F84-43B6-8484-79EC9B463C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DB93457-207B-44F0-87AB-D713BC72F2C4}"/>
   </bookViews>
@@ -175,7 +175,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,7 +519,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,8 +559,8 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -588,13 +588,15 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -617,25 +619,26 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -655,19 +658,20 @@
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -681,13 +685,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -700,79 +704,80 @@
       <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
-      <c r="G35" s="2"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G36" s="3"/>

--- a/График.xlsx
+++ b/График.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vogade\Desktop\GitHub\salvation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E1E98A-6F84-43B6-8484-79EC9B463C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7390DBD7-FB0E-416C-9AC3-07A62A07CD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DB93457-207B-44F0-87AB-D713BC72F2C4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Изучение платформы Monogame</t>
   </si>
@@ -44,57 +44,18 @@
     <t>Реализация уровней</t>
   </si>
   <si>
-    <t>Добавление звуков</t>
-  </si>
-  <si>
-    <t>Добавление музыки</t>
-  </si>
-  <si>
     <t>Реализация монстров</t>
   </si>
   <si>
-    <t>Реализация боссов</t>
-  </si>
-  <si>
     <t>Реализация игрока</t>
   </si>
   <si>
     <t>Реализация оружия</t>
   </si>
   <si>
-    <t>Реализация турели</t>
-  </si>
-  <si>
-    <t>Реализация бочки</t>
-  </si>
-  <si>
-    <t>Реализация взрыва</t>
-  </si>
-  <si>
-    <t>Реализация передвигаемых объектов</t>
-  </si>
-  <si>
     <t>Реализация непроходимых объектов</t>
   </si>
   <si>
-    <t>Реализация паузы</t>
-  </si>
-  <si>
-    <t>Реализация провода</t>
-  </si>
-  <si>
-    <t>Реализация Filler game</t>
-  </si>
-  <si>
-    <t>Реализация разбросанных цифр</t>
-  </si>
-  <si>
-    <t>Реализация игры на запоминание</t>
-  </si>
-  <si>
-    <t>Реализация кат-сцен</t>
-  </si>
-  <si>
     <t>Реализация параллельного мира</t>
   </si>
   <si>
@@ -104,9 +65,6 @@
     <t>Реализация радиуса видимости</t>
   </si>
   <si>
-    <t>Реализация Любимой</t>
-  </si>
-  <si>
     <t>Реализация пули</t>
   </si>
   <si>
@@ -128,23 +86,23 @@
     <t>Гравитация</t>
   </si>
   <si>
-    <t>Реализация инвентаря</t>
-  </si>
-  <si>
     <t>Реализация игрового меню (1)</t>
   </si>
   <si>
-    <t>Реализация игрового меню (2)</t>
-  </si>
-  <si>
     <t>Реализация геймлея</t>
+  </si>
+  <si>
+    <t>Написать тесты</t>
+  </si>
+  <si>
+    <t>Реализация шипа</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,19 +111,20 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -195,10 +154,10 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,13 +478,13 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.140625" customWidth="1"/>
-    <col min="2" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -548,7 +507,9 @@
       <c r="G1" s="1">
         <v>45069</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1">
+        <v>45076</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
@@ -556,57 +517,58 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -617,176 +579,203 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="3"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="3"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G36" s="3"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G37" s="3"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G38" s="3"/>
+      <c r="G38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
